--- a/Tratamento/src/Dados_limpos/novos/limpo_cobasi_20251104_201259.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_cobasi_20251104_201259.xlsx
@@ -5497,7 +5497,7 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5567,7 +5567,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5847,7 +5847,7 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5917,7 +5917,7 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
